--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/20.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/20.xlsx
@@ -479,13 +479,13 @@
         <v>0.06952018298792424</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.626254405720012</v>
+        <v>-1.626370096125428</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02389293739194401</v>
+        <v>0.01691845866546067</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2237978595741748</v>
+        <v>-0.2218350577299129</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06917692653139758</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.64974034502894</v>
+        <v>-1.65050295729321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02511280221095205</v>
+        <v>0.01716243162926228</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1989362275532305</v>
+        <v>-0.1977698793843466</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06989463143908521</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.70464449300859</v>
+        <v>-1.703792948663966</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01602733556248403</v>
+        <v>-0.0237353071994935</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2090193940442827</v>
+        <v>-0.207942764965313</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07386755515468008</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.81536099800088</v>
+        <v>-1.814556674229896</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02508581560556949</v>
+        <v>-0.03163373515018035</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2291573946822037</v>
+        <v>-0.2264437857170813</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.08394546703553447</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.783349384121427</v>
+        <v>-1.780009315546027</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007766883213898019</v>
+        <v>-0.01303040315552752</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2232154724992935</v>
+        <v>-0.2211173050105998</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1021806694802892</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.605544249131498</v>
+        <v>-1.604760387609091</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05559683053318247</v>
+        <v>0.05140679163228004</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.205336189300439</v>
+        <v>-0.2048450953345932</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.1298251103864391</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.345273891347945</v>
+        <v>-1.345485596919759</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08592345694328282</v>
+        <v>0.08310753673527589</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1944644392296152</v>
+        <v>-0.1936065988085063</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1664917750679288</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.936750607576882</v>
+        <v>-0.9394044038153949</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1839313315501915</v>
+        <v>0.178940116916547</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1680602684697962</v>
+        <v>-0.1671803917809891</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2094927970037113</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4928717063031635</v>
+        <v>-0.4932195645289709</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1972554034120018</v>
+        <v>0.1962543272508545</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1200605553657317</v>
+        <v>-0.1212442177449498</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2553205007848899</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01216469263881214</v>
+        <v>-0.01303669923201272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1703018999788488</v>
+        <v>0.167879484551167</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05477181623330046</v>
+        <v>-0.05795133485832785</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3005194704102694</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5476005794311088</v>
+        <v>0.548135745932351</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1362007757158694</v>
+        <v>0.1342379738716074</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03852659316267651</v>
+        <v>0.03565086022806015</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3425156291229661</v>
       </c>
       <c r="E13" t="n">
-        <v>1.122004229329126</v>
+        <v>1.121218793787597</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01457631821296525</v>
+        <v>0.014250496254856</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1389946596561781</v>
+        <v>0.1369673230279428</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3797817801492012</v>
       </c>
       <c r="E14" t="n">
-        <v>1.734757281098514</v>
+        <v>1.733932495078952</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.192929770586347</v>
+        <v>-0.1931580033589356</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2582423482859182</v>
+        <v>0.2559411323305766</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4123579131141599</v>
       </c>
       <c r="E15" t="n">
-        <v>2.383630923663509</v>
+        <v>2.381749970813555</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4664895718110427</v>
+        <v>-0.4654869216307742</v>
       </c>
       <c r="G15" t="n">
-        <v>0.382665411786495</v>
+        <v>0.3791191467062046</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4415855364525282</v>
       </c>
       <c r="E16" t="n">
-        <v>3.010591072021756</v>
+        <v>3.010945226324049</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.7008909253360198</v>
+        <v>-0.7014308138946259</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5328740565322196</v>
+        <v>0.5275601679787085</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4719700250934196</v>
       </c>
       <c r="E17" t="n">
-        <v>3.611269823111646</v>
+        <v>3.613490764091801</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9454997928626319</v>
+        <v>-0.943482687358685</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6957173527646249</v>
+        <v>0.6894448865662416</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.508477524264534</v>
       </c>
       <c r="E18" t="n">
-        <v>4.186989352995071</v>
+        <v>4.185884391571918</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.167410517650527</v>
+        <v>-1.168230581612725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8317346411127026</v>
+        <v>0.8261106707922952</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5556689098820845</v>
       </c>
       <c r="E19" t="n">
-        <v>4.665889392708169</v>
+        <v>4.662799593173056</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.37610262985774</v>
+        <v>-1.379596952307027</v>
       </c>
       <c r="G19" t="n">
-        <v>1.006658534101091</v>
+        <v>1.001232890189967</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6137182609046958</v>
       </c>
       <c r="E20" t="n">
-        <v>5.03787575762604</v>
+        <v>5.030616381438601</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.548142919815905</v>
+        <v>-1.555643907938463</v>
       </c>
       <c r="G20" t="n">
-        <v>1.141111247442595</v>
+        <v>1.134701841580659</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6795898234889542</v>
       </c>
       <c r="E21" t="n">
-        <v>5.374802420636058</v>
+        <v>5.365481079399715</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.76349470692534</v>
+        <v>-1.773576299397271</v>
       </c>
       <c r="G21" t="n">
-        <v>1.273550790327956</v>
+        <v>1.267871729338303</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7504104972769634</v>
       </c>
       <c r="E22" t="n">
-        <v>5.675185081706839</v>
+        <v>5.661771290755114</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.91514908823398</v>
+        <v>-1.930829466720377</v>
       </c>
       <c r="G22" t="n">
-        <v>1.381684329942192</v>
+        <v>1.37555824752209</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8237664031930774</v>
       </c>
       <c r="E23" t="n">
-        <v>5.84121891469812</v>
+        <v>5.825612515110424</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.04527561002059</v>
+        <v>-2.062825923223092</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493309043967473</v>
+        <v>1.48529413860181</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8971301559738315</v>
       </c>
       <c r="E24" t="n">
-        <v>6.002887992666036</v>
+        <v>5.986461529116141</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.139423202732508</v>
+        <v>-2.157906122264381</v>
       </c>
       <c r="G24" t="n">
-        <v>1.530451173172806</v>
+        <v>1.5235711355936</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9680508744706359</v>
       </c>
       <c r="E25" t="n">
-        <v>6.098800847822493</v>
+        <v>6.078514889387169</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.172725512291428</v>
+        <v>-2.191155702182737</v>
       </c>
       <c r="G25" t="n">
-        <v>1.602155614243658</v>
+        <v>1.594417736243344</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.033687770511805</v>
       </c>
       <c r="E26" t="n">
-        <v>6.152312775889352</v>
+        <v>6.131899321905204</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.194727938578529</v>
+        <v>-2.211121347726876</v>
       </c>
       <c r="G26" t="n">
-        <v>1.674072547895887</v>
+        <v>1.664373442070432</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.091836159458956</v>
       </c>
       <c r="E27" t="n">
-        <v>6.140222735018642</v>
+        <v>6.119039585684177</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.187781005186669</v>
+        <v>-2.200984664585699</v>
       </c>
       <c r="G27" t="n">
-        <v>1.646117968301587</v>
+        <v>1.635534263729961</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.140976038987502</v>
       </c>
       <c r="E28" t="n">
-        <v>6.080155017311565</v>
+        <v>6.057295537612915</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.201264839989291</v>
+        <v>-2.211358237604632</v>
       </c>
       <c r="G28" t="n">
-        <v>1.638173893796382</v>
+        <v>1.627451675542082</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.180959419063462</v>
       </c>
       <c r="E29" t="n">
-        <v>5.9776501700751</v>
+        <v>5.956361561459508</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.151833556494403</v>
+        <v>-2.158597903668193</v>
       </c>
       <c r="G29" t="n">
-        <v>1.611519453996276</v>
+        <v>1.599865416422166</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.211389826053257</v>
       </c>
       <c r="E30" t="n">
-        <v>5.846715389469702</v>
+        <v>5.823709525992772</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.151771382739112</v>
+        <v>-2.153435907959888</v>
       </c>
       <c r="G30" t="n">
-        <v>1.546735975001783</v>
+        <v>1.53347014184746</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.233204683598182</v>
       </c>
       <c r="E31" t="n">
-        <v>5.646147576957084</v>
+        <v>5.625079331018474</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.092851124971463</v>
+        <v>-2.092380493254195</v>
       </c>
       <c r="G31" t="n">
-        <v>1.483290412260394</v>
+        <v>1.468681940795603</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.246780290213741</v>
       </c>
       <c r="E32" t="n">
-        <v>5.46186299225432</v>
+        <v>5.43825270543481</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.01671660708371</v>
+        <v>-2.014105309361472</v>
       </c>
       <c r="G32" t="n">
-        <v>1.438723634859887</v>
+        <v>1.425407433093683</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.252996395966105</v>
       </c>
       <c r="E33" t="n">
-        <v>5.191907694817403</v>
+        <v>5.170206693192031</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.982721729111418</v>
+        <v>-1.975101115535641</v>
       </c>
       <c r="G33" t="n">
-        <v>1.377908258070192</v>
+        <v>1.364790382713272</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.252003016759763</v>
       </c>
       <c r="E34" t="n">
-        <v>4.960970757378409</v>
+        <v>4.940004822682684</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.913712008776232</v>
+        <v>-1.903424219799411</v>
       </c>
       <c r="G34" t="n">
-        <v>1.282692693384471</v>
+        <v>1.269138814730951</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.243362962470628</v>
       </c>
       <c r="E35" t="n">
-        <v>4.666490668012506</v>
+        <v>4.645197337339551</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.876690292033679</v>
+        <v>-1.866167974207784</v>
       </c>
       <c r="G35" t="n">
-        <v>1.196297931854519</v>
+        <v>1.182747201239241</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.22783769843128</v>
       </c>
       <c r="E36" t="n">
-        <v>4.287433809201753</v>
+        <v>4.266521391156152</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.83646623338884</v>
+        <v>-1.825361528488064</v>
       </c>
       <c r="G36" t="n">
-        <v>1.146687997189364</v>
+        <v>1.133014493082624</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.204208644100712</v>
       </c>
       <c r="E37" t="n">
-        <v>3.97304710000876</v>
+        <v>3.954237571509217</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.793704855920464</v>
+        <v>-1.785475883954305</v>
       </c>
       <c r="G37" t="n">
-        <v>1.063584509642051</v>
+        <v>1.049911005535312</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.172418039655853</v>
       </c>
       <c r="E38" t="n">
-        <v>3.683188330782996</v>
+        <v>3.664688884050349</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.716890361772309</v>
+        <v>-1.708341863924525</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9832276854614085</v>
+        <v>0.9718239169275851</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.132996928696697</v>
       </c>
       <c r="E39" t="n">
-        <v>3.334628092447444</v>
+        <v>3.317822290289317</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.680953144204332</v>
+        <v>-1.674339902866188</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8994520917493007</v>
+        <v>0.8885000667032905</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.086309599937698</v>
       </c>
       <c r="E40" t="n">
-        <v>3.002927172920144</v>
+        <v>2.986155999182685</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.644512240517539</v>
+        <v>-1.639574542534019</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8378056328635592</v>
+        <v>0.8276925600092023</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.033845430757066</v>
       </c>
       <c r="E41" t="n">
-        <v>2.678258970826815</v>
+        <v>2.664147889404354</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.624789780927642</v>
+        <v>-1.618137189111465</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7835208614081411</v>
+        <v>0.7752194845624013</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9768242585522022</v>
       </c>
       <c r="E42" t="n">
-        <v>2.340789271219947</v>
+        <v>2.329684566319171</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.57375535895771</v>
+        <v>-1.568087316101906</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7199163227355017</v>
+        <v>0.7116952208649482</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9169713899301737</v>
       </c>
       <c r="E43" t="n">
-        <v>2.081531007731389</v>
+        <v>2.072598449218008</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.520387453640449</v>
+        <v>-1.516650732246482</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6437117609968501</v>
+        <v>0.6364020161975298</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8559175353216967</v>
       </c>
       <c r="E44" t="n">
-        <v>1.828219388483106</v>
+        <v>1.820163558620289</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.503258190552895</v>
+        <v>-1.500393475752127</v>
       </c>
       <c r="G44" t="n">
-        <v>0.559275079253796</v>
+        <v>0.5529396522905607</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7949683920017944</v>
       </c>
       <c r="E45" t="n">
-        <v>1.602682910649294</v>
+        <v>1.595620286852018</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.425789691459838</v>
+        <v>-1.425712564522895</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5051225254045671</v>
+        <v>0.5002163078034729</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7353545166498093</v>
       </c>
       <c r="E46" t="n">
-        <v>1.388260581830987</v>
+        <v>1.381728402477589</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.361592534588029</v>
+        <v>-1.362957996175758</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4416029837644779</v>
+        <v>0.4378001535674155</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6770387500111114</v>
       </c>
       <c r="E47" t="n">
-        <v>1.237192522645032</v>
+        <v>1.232780547048026</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.312934881491261</v>
+        <v>-1.316937612116729</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3771469007472148</v>
+        <v>0.3737832218849952</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6203760359437739</v>
       </c>
       <c r="E48" t="n">
-        <v>1.026113410440367</v>
+        <v>1.023358876978091</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.236206958394777</v>
+        <v>-1.240208115001123</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2918822849463565</v>
+        <v>0.2891135853119886</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5655133329410915</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8684360449640707</v>
+        <v>0.8667392523513086</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.165903394341882</v>
+        <v>-1.170050934726509</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2476869760584758</v>
+        <v>0.2464025764554944</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.511923223301643</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7705698320780791</v>
+        <v>0.7699528165825292</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.092587157690817</v>
+        <v>-1.097097509482904</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2107431732624274</v>
+        <v>0.2083900146760828</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4593323527088063</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6343715315310519</v>
+        <v>0.6356921335738231</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.061206725479006</v>
+        <v>-1.064488555346918</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1686413098058766</v>
+        <v>0.1669272029827801</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4079414983023718</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4625956767852652</v>
+        <v>0.46352120002859</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.024381761126616</v>
+        <v>-1.029503619347328</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1257807691328588</v>
+        <v>0.1244145205355698</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3575194209008026</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4035636636600042</v>
+        <v>0.4056697012443045</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.025777129077649</v>
+        <v>-1.030910792441771</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09931993368467297</v>
+        <v>0.09735870585953232</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3085306122444331</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2475453143375587</v>
+        <v>0.2468968184595829</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9650176299667604</v>
+        <v>-0.9709926065512178</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05352699538867207</v>
+        <v>0.05240471975518467</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2614028731560171</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1293616626338179</v>
+        <v>0.1286014113982297</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.942373003878168</v>
+        <v>-0.9495001624594176</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02638618368008431</v>
+        <v>0.02582111081553736</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2167556238114312</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04197369503832502</v>
+        <v>0.04135825356189645</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9264250421411495</v>
+        <v>-0.9346571621455521</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008723886839648837</v>
+        <v>-0.008475191818483328</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1751717303251621</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.06929843870378451</v>
+        <v>-0.06959120626034643</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9276937015529179</v>
+        <v>-0.9357259211289153</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05021660489625627</v>
+        <v>-0.04974282514074476</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1371100428233941</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1266226410824343</v>
+        <v>-0.1258450756365117</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9074305663948534</v>
+        <v>-0.9171627266218556</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0809524762778948</v>
+        <v>-0.07984594083562041</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1022809877391405</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2062538424481573</v>
+        <v>-0.2065796644062666</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9173823022892771</v>
+        <v>-0.9288569016835591</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1050869114647982</v>
+        <v>-0.106273721882259</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07067369365890029</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3013088571835059</v>
+        <v>-0.2996828954312023</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.913641645847506</v>
+        <v>-0.9254814176779297</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1244316064655837</v>
+        <v>-0.1257081359729585</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.04259008142412242</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3938847918028058</v>
+        <v>-0.3940972843841815</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8951925677267406</v>
+        <v>-0.9067560992013761</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1479033796024196</v>
+        <v>-0.1491688909759453</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01760998549791653</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5040598342173688</v>
+        <v>-0.5029123742779406</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8835629274490104</v>
+        <v>-0.8975929468867241</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1766591349294618</v>
+        <v>-0.1770306034420888</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.004211209987449754</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5666743148627101</v>
+        <v>-0.5661517405144383</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8939372874775033</v>
+        <v>-0.9075108413700398</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1982294929677665</v>
+        <v>-0.1990826113315114</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.02317619934278865</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6896303925422347</v>
+        <v>-0.6865390189880001</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9161073468010235</v>
+        <v>-0.931092008835806</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2357871632211221</v>
+        <v>-0.235875308291915</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.03952894319032224</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8128335912238034</v>
+        <v>-0.8104741365609737</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9490507800002862</v>
+        <v>-0.9665121611224354</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2824395159573532</v>
+        <v>-0.2821278601713357</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.05321542603834272</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9086724674815597</v>
+        <v>-0.9066695281497046</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9778482468340429</v>
+        <v>-0.9949515386060962</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3098652251268964</v>
+        <v>-0.3103531710544996</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06472999585270429</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9526757460366417</v>
+        <v>-0.9501533803947574</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.016716288005882</v>
+        <v>-1.034468075655911</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3512131334243442</v>
+        <v>-0.3502388155882591</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.07443631325658827</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.998127909192881</v>
+        <v>-0.9965381498803674</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.030067905202315</v>
+        <v>-1.047397068718275</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3744692659415619</v>
+        <v>-0.3747541634025173</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.08211308766862409</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.068216619635719</v>
+        <v>-1.064416937476899</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.079452755133124</v>
+        <v>-1.096766178457871</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3950070674362932</v>
+        <v>-0.3944168102658055</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.08824393743713746</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.09734699151363</v>
+        <v>-1.094421676976693</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.126332553632383</v>
+        <v>-1.142534719457491</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.409673777608573</v>
+        <v>-0.408035223703299</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.09279964827594796</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.120293042263952</v>
+        <v>-1.114755642995216</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.135427236115258</v>
+        <v>-1.152592701642603</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4396887482326559</v>
+        <v>-0.4382579648513935</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.09567099391656178</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.150189174444377</v>
+        <v>-1.144450300728114</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.180408767554229</v>
+        <v>-1.195240749734245</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.418190795073931</v>
+        <v>-0.4168151023619143</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.09690374234770016</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.128008096987007</v>
+        <v>-1.118376673983768</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.202954230438179</v>
+        <v>-1.218585027322255</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4258720083858784</v>
+        <v>-0.4247103822743585</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.09624855374050209</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.134421437896747</v>
+        <v>-1.124028976648359</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.227232688374681</v>
+        <v>-1.240184504714304</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4304366638376504</v>
+        <v>-0.4281669282647348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.09372819184856346</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.095206325508661</v>
+        <v>-1.082851062416012</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.242596689017697</v>
+        <v>-1.257333443040875</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4387396147025115</v>
+        <v>-0.4356828695689456</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.08920187062496202</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.006157767740196</v>
+        <v>-0.9962438083046841</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.261180345773334</v>
+        <v>-1.274978984400216</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4126817281493786</v>
+        <v>-0.4097115540674843</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.08240608782498206</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9459570454173697</v>
+        <v>-0.937842189837504</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.269159048699207</v>
+        <v>-1.284805585774497</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3954950133638964</v>
+        <v>-0.3928915857372651</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.07374386229384178</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7950629153443186</v>
+        <v>-0.7877264122199361</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.255934140042039</v>
+        <v>-1.270145958688263</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.352473922740506</v>
+        <v>-0.3495446731557655</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.063378089725054</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6812518887595511</v>
+        <v>-0.6744505521364108</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.274671263662002</v>
+        <v>-1.288760308816765</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3372138073594959</v>
+        <v>-0.3340815093081075</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.05177621375407673</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.5207554550370052</v>
+        <v>-0.5142626261616399</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.268198110025653</v>
+        <v>-1.282025080996719</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3144975634008844</v>
+        <v>-0.3129865050444357</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.03964924544159709</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.374862770721887</v>
+        <v>-0.3690184377244975</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.284842575223847</v>
+        <v>-1.294787228032225</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.291562530784412</v>
+        <v>-0.2885467101479999</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.02756520257731336</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.2121800244398545</v>
+        <v>-0.2061531052243941</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.296968031524787</v>
+        <v>-1.305811657957815</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2656888044684713</v>
+        <v>-0.2630822288035974</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.01584002204279832</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.01639565603686839</v>
+        <v>-0.01034984859195245</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.274313961321467</v>
+        <v>-1.281670139684866</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1991565902302125</v>
+        <v>-0.1983491184209853</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.005215262736569588</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1488102428966092</v>
+        <v>0.1546309656071791</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.27244166557668</v>
+        <v>-1.281171175623413</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1756375965197377</v>
+        <v>-0.1755163970473975</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.004123223397447126</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3189790241195479</v>
+        <v>0.3272268843151634</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.190972009877277</v>
+        <v>-1.196418116036978</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1294259691374708</v>
+        <v>-0.1293551382770123</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.01219445144450296</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5259326322072836</v>
+        <v>0.5336531959972635</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.121050145461298</v>
+        <v>-1.124411463294835</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07508925505104974</v>
+        <v>-0.07424243276378996</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.01856476277085185</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7171995657321366</v>
+        <v>0.7243818149826317</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.036323844199924</v>
+        <v>-1.038273266881655</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02789701375621251</v>
+        <v>-0.02761369031437839</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02296733751029872</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8767877904216921</v>
+        <v>0.8849758378906982</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9101819518188871</v>
+        <v>-0.9103747691612464</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.003603602638057699</v>
+        <v>-0.002089396243366438</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02530636287726767</v>
       </c>
       <c r="E89" t="n">
-        <v>1.017497229770367</v>
+        <v>1.026037857522545</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8022168322506302</v>
+        <v>-0.8008820640357672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0305006696631643</v>
+        <v>0.02997022521928597</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02406726423285724</v>
       </c>
       <c r="E90" t="n">
-        <v>1.121528875554493</v>
+        <v>1.132068507590723</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6562234107117488</v>
+        <v>-0.6552884433536963</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04886002869401553</v>
+        <v>0.04878290175707179</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01893594417489246</v>
       </c>
       <c r="E91" t="n">
-        <v>1.223342728396707</v>
+        <v>1.231875486053278</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4818457023584522</v>
+        <v>-0.4791588517183919</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02354665318525787</v>
+        <v>0.02380636634027248</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.009217186703812932</v>
       </c>
       <c r="E92" t="n">
-        <v>1.261503247973521</v>
+        <v>1.270413770219204</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3306847760443406</v>
+        <v>-0.32852994386728</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05142253182349305</v>
+        <v>0.05093301187676853</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.005033116167740605</v>
       </c>
       <c r="E93" t="n">
-        <v>1.292223379163947</v>
+        <v>1.302412004936126</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2225339222197704</v>
+        <v>-0.2196817995719735</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04093799045650916</v>
+        <v>0.04023282989016646</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.02303947869670062</v>
       </c>
       <c r="E94" t="n">
-        <v>1.244585690457781</v>
+        <v>1.25476172407699</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.09436469321049795</v>
+        <v>-0.09050677234418997</v>
       </c>
       <c r="G94" t="n">
-        <v>0.05776425486321352</v>
+        <v>0.05656013023541849</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.04449293690965787</v>
       </c>
       <c r="E95" t="n">
-        <v>1.215700865562792</v>
+        <v>1.22442250551392</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.008048632636610842</v>
+        <v>-0.004351261720675526</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01454011577317533</v>
+        <v>0.01314396081258162</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.06807272413172703</v>
       </c>
       <c r="E96" t="n">
-        <v>1.127072570899714</v>
+        <v>1.136044479891128</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06968115363058103</v>
+        <v>0.07180922748257955</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02708481988962136</v>
+        <v>-0.02891697814681536</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09290032822086948</v>
       </c>
       <c r="E97" t="n">
-        <v>1.065512683065645</v>
+        <v>1.072535956384888</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1177249392700419</v>
+        <v>0.1195334872404164</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01339085353430538</v>
+        <v>-0.01564642293512926</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1182721169783851</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9641206673479394</v>
+        <v>0.971792436545159</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1127982594203708</v>
+        <v>0.1155150164237358</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06692796590710567</v>
+        <v>-0.06833828703979108</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1431812257285054</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9056143766091929</v>
+        <v>0.9101743100036009</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1256170711442436</v>
+        <v>0.1288343662281822</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.0594498010618061</v>
+        <v>-0.06136695635155034</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1672275071092836</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8519418985919608</v>
+        <v>0.8563239678256619</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1182459395991924</v>
+        <v>0.1204322521586791</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06748202063780351</v>
+        <v>-0.06849411493279986</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1893122098306046</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7721737575626845</v>
+        <v>0.7758490922109216</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1120694885672086</v>
+        <v>0.1151073454713189</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06437648091147725</v>
+        <v>-0.06645261213247286</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2080927053410916</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7492654832712743</v>
+        <v>0.7509056111956696</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1100925205508549</v>
+        <v>0.1140134021820149</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06367132034513455</v>
+        <v>-0.06529256004007425</v>
       </c>
     </row>
   </sheetData>
